--- a/xslx/sortie_model.xlsx
+++ b/xslx/sortie_model.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ING\Desktop\pythonProject\xslx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153AE18-BF27-424D-8409-1F7DD4722E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B96769-B1ED-4D20-AB18-C3FB8E914D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>الجمهورية الجزائرية الديمقراطية الشعبية</t>
   </si>
@@ -29,12 +29,6 @@
   </si>
   <si>
     <t>المؤسسة العمومية للصحة الجوارية بجانت</t>
-  </si>
-  <si>
-    <t>جانت في .................</t>
-  </si>
-  <si>
-    <t>المديرية الفرعية للمالية و الوسائل</t>
   </si>
   <si>
     <t>تاريخ:</t>
@@ -55,7 +49,7 @@
     <t>ملاحظات</t>
   </si>
   <si>
-    <t>كلبية التموين للفرق الطبية</t>
+    <t>طلبية التموين للفرق الطبية</t>
   </si>
 </sst>
 </file>
@@ -120,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,11 +152,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -190,13 +221,28 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -215,12 +261,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -561,10 +601,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G13" sqref="A13:G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45:F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,15 +619,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="G1" s="19"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
       <c r="J1" s="3"/>
@@ -595,7 +635,7 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -615,11 +655,11 @@
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -632,11 +672,11 @@
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="17" t="s">
+      <c r="E4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
       <c r="J4" s="3"/>
@@ -668,22 +708,22 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13"/>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="1:13" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>11</v>
+      <c r="A7" s="23" t="s">
+        <v>9</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="23"/>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
@@ -696,10 +736,10 @@
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
-      <c r="E8" s="15" t="s">
-        <v>5</v>
+      <c r="E8" s="20" t="s">
+        <v>3</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="2"/>
       <c r="H8" s="5"/>
       <c r="I8" s="5"/>
@@ -708,7 +748,7 @@
       <c r="L8" s="5"/>
       <c r="M8" s="5"/>
     </row>
-    <row r="9" spans="1:13" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" ht="4.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7"/>
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
@@ -728,10 +768,10 @@
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="6"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
       <c r="G10" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H10" s="5"/>
       <c r="I10" s="5"/>
@@ -740,7 +780,7 @@
       <c r="L10" s="5"/>
       <c r="M10" s="5"/>
     </row>
-    <row r="11" spans="1:13" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="7"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
@@ -757,19 +797,19 @@
     </row>
     <row r="12" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="19" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
+      <c r="B12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
       <c r="G12" s="10" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
@@ -778,14 +818,14 @@
       <c r="L12" s="5"/>
       <c r="M12" s="5"/>
     </row>
-    <row r="13" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="21"/>
+    <row r="13" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="11"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
@@ -793,14 +833,14 @@
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
     </row>
-    <row r="14" spans="1:13" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
+    <row r="14" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="11"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -808,29 +848,29 @@
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
     </row>
-    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
+    <row r="15" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="12"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
+    <row r="16" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="11"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -838,14 +878,14 @@
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
+    <row r="17" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="11"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -853,14 +893,14 @@
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
+    <row r="18" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="16"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="11"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -868,14 +908,14 @@
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
+    <row r="19" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="16"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="11"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -883,16 +923,14 @@
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
-        <v>3</v>
-      </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-      <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
+    <row r="20" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11"/>
+      <c r="B20" s="14"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="16"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="11"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
       <c r="J20" s="1"/>
@@ -900,16 +938,14 @@
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
+    <row r="21" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="11"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="16"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="11"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -917,14 +953,14 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
+    <row r="22" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="11"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="11"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -932,14 +968,14 @@
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-      <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
+    <row r="23" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11"/>
+      <c r="B23" s="14"/>
+      <c r="C23" s="15"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="11"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -947,14 +983,14 @@
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-      <c r="F24" s="1"/>
-      <c r="G24" s="1"/>
+    <row r="24" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11"/>
+      <c r="B24" s="14"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="14"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="15"/>
+      <c r="G24" s="11"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -962,14 +998,14 @@
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-      <c r="F25" s="1"/>
-      <c r="G25" s="1"/>
+    <row r="25" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="14"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="11"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -977,14 +1013,14 @@
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-      <c r="F26" s="1"/>
-      <c r="G26" s="1"/>
+    <row r="26" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="11"/>
+      <c r="B26" s="14"/>
+      <c r="C26" s="15"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="15"/>
+      <c r="G26" s="11"/>
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -992,14 +1028,14 @@
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-      <c r="F27" s="1"/>
-      <c r="G27" s="1"/>
+    <row r="27" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11"/>
+      <c r="B27" s="14"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="14"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="15"/>
+      <c r="G27" s="11"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -1008,13 +1044,13 @@
       <c r="M27" s="1"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-      <c r="F28" s="1"/>
-      <c r="G28" s="1"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -1023,13 +1059,13 @@
       <c r="M28" s="1"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="1"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="1"/>
-      <c r="G29" s="1"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="14"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="14"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="15"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="1"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -1038,13 +1074,13 @@
       <c r="M29" s="1"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1"/>
-      <c r="G30" s="1"/>
+      <c r="A30" s="11"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="15"/>
+      <c r="G30" s="11"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -1053,13 +1089,13 @@
       <c r="M30" s="1"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-      <c r="F31" s="1"/>
-      <c r="G31" s="1"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="14"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="14"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -1068,13 +1104,13 @@
       <c r="M31" s="1"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="1"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="11"/>
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="15"/>
+      <c r="G32" s="11"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -1083,13 +1119,13 @@
       <c r="M32" s="1"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="1"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="1"/>
-      <c r="G33" s="1"/>
+      <c r="A33" s="11"/>
+      <c r="B33" s="14"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="16"/>
+      <c r="F33" s="15"/>
+      <c r="G33" s="11"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -1098,13 +1134,13 @@
       <c r="M33" s="1"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="1"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
-      <c r="G34" s="1"/>
+      <c r="A34" s="11"/>
+      <c r="B34" s="14"/>
+      <c r="C34" s="15"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="16"/>
+      <c r="F34" s="15"/>
+      <c r="G34" s="11"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -1113,13 +1149,13 @@
       <c r="M34" s="1"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="1"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="1"/>
-      <c r="G35" s="1"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="14"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="14"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="15"/>
+      <c r="G35" s="11"/>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
@@ -1128,13 +1164,13 @@
       <c r="M35" s="1"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="1"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-      <c r="F36" s="1"/>
-      <c r="G36" s="1"/>
+      <c r="A36" s="11"/>
+      <c r="B36" s="14"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="16"/>
+      <c r="F36" s="15"/>
+      <c r="G36" s="11"/>
       <c r="H36" s="1"/>
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
@@ -1142,23 +1178,254 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="16"/>
+      <c r="F37" s="15"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+      <c r="K37" s="1"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" s="11"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="15"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="16"/>
+      <c r="F38" s="15"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" s="11"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="1"/>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="15"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="16"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="1"/>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" s="11"/>
+      <c r="B41" s="14"/>
+      <c r="C41" s="15"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="16"/>
+      <c r="F41" s="15"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="1"/>
+      <c r="I41" s="1"/>
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" s="11"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="16"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="1"/>
+      <c r="I42" s="1"/>
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" s="11"/>
+      <c r="B43" s="14"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="14"/>
+      <c r="E43" s="16"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" s="11"/>
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="16"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="1"/>
+      <c r="I44" s="1"/>
+      <c r="J44" s="1"/>
+      <c r="K44" s="1"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="1"/>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" s="11"/>
+      <c r="B45" s="14"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="14"/>
+      <c r="E45" s="16"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="11"/>
+      <c r="H45" s="1"/>
+      <c r="I45" s="1"/>
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" s="11"/>
+      <c r="B46" s="14"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="16"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="11"/>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" s="11"/>
+      <c r="B47" s="14"/>
+      <c r="C47" s="15"/>
+      <c r="D47" s="14"/>
+      <c r="E47" s="16"/>
+      <c r="F47" s="15"/>
+      <c r="G47" s="11"/>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" s="11"/>
+      <c r="B48" s="14"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="11"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="A21:C21"/>
+  <mergeCells count="81">
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B15:C15"/>
     <mergeCell ref="E4:G4"/>
     <mergeCell ref="A7:G7"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D13:F13"/>
     <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D15:F15"/>
     <mergeCell ref="E3:G3"/>
-    <mergeCell ref="A20:C20"/>
     <mergeCell ref="I6:M6"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.25" bottom="0" header="0" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/xslx/sortie_model.xlsx
+++ b/xslx/sortie_model.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC_ING\Desktop\pythonProject\xslx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95B96769-B1ED-4D20-AB18-C3FB8E914D82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5A1E1A1-EA2B-4242-A70F-6EF538636439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13290" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -604,7 +604,7 @@
   <dimension ref="A1:M48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45:F45"/>
+      <selection activeCell="E10" sqref="E10:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +615,7 @@
     <col min="4" max="4" width="14.7109375" customWidth="1"/>
     <col min="5" max="5" width="7.85546875" customWidth="1"/>
     <col min="6" max="6" width="17.5703125" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
@@ -1043,7 +1043,7 @@
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
       <c r="B28" s="14"/>
       <c r="C28" s="15"/>
@@ -1058,7 +1058,7 @@
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
       <c r="B29" s="14"/>
       <c r="C29" s="15"/>
@@ -1073,7 +1073,7 @@
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="14"/>
       <c r="C30" s="15"/>
@@ -1088,7 +1088,7 @@
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
@@ -1103,7 +1103,7 @@
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="14"/>
       <c r="C32" s="15"/>
@@ -1118,7 +1118,7 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="14"/>
       <c r="C33" s="15"/>
@@ -1133,7 +1133,7 @@
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="14"/>
       <c r="C34" s="15"/>
@@ -1148,7 +1148,7 @@
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
       <c r="B35" s="14"/>
       <c r="C35" s="15"/>
@@ -1163,7 +1163,7 @@
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="11"/>
       <c r="B36" s="14"/>
       <c r="C36" s="15"/>
@@ -1178,7 +1178,7 @@
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="11"/>
       <c r="B37" s="14"/>
       <c r="C37" s="15"/>
@@ -1193,7 +1193,7 @@
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="11"/>
       <c r="B38" s="14"/>
       <c r="C38" s="15"/>
@@ -1208,7 +1208,7 @@
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="11"/>
       <c r="B39" s="14"/>
       <c r="C39" s="15"/>
@@ -1223,7 +1223,7 @@
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="11"/>
       <c r="B40" s="14"/>
       <c r="C40" s="15"/>
@@ -1238,7 +1238,7 @@
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="11"/>
       <c r="B41" s="14"/>
       <c r="C41" s="15"/>
@@ -1253,7 +1253,7 @@
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="11"/>
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
@@ -1268,7 +1268,7 @@
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="11"/>
       <c r="B43" s="14"/>
       <c r="C43" s="15"/>
@@ -1283,7 +1283,7 @@
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="11"/>
       <c r="B44" s="14"/>
       <c r="C44" s="15"/>
@@ -1298,7 +1298,7 @@
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="11"/>
       <c r="B45" s="14"/>
       <c r="C45" s="15"/>
@@ -1313,7 +1313,7 @@
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="11"/>
       <c r="B46" s="14"/>
       <c r="C46" s="15"/>
@@ -1322,7 +1322,7 @@
       <c r="F46" s="15"/>
       <c r="G46" s="11"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="11"/>
       <c r="B47" s="14"/>
       <c r="C47" s="15"/>
@@ -1331,7 +1331,7 @@
       <c r="F47" s="15"/>
       <c r="G47" s="11"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="11"/>
       <c r="B48" s="14"/>
       <c r="C48" s="15"/>
@@ -1348,6 +1348,16 @@
     <mergeCell ref="D47:F47"/>
     <mergeCell ref="B48:C48"/>
     <mergeCell ref="D48:F48"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
     <mergeCell ref="B16:C16"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="B17:C17"/>
@@ -1369,16 +1379,6 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="E10:F10"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="D25:F25"/>
     <mergeCell ref="B26:C26"/>
@@ -1415,14 +1415,14 @@
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="D42:F42"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="D46:F46"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="D43:F43"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="D44:F44"/>
     <mergeCell ref="B45:C45"/>
     <mergeCell ref="D45:F45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="D46:F46"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.25" bottom="0" header="0" footer="0.3"/>
